--- a/PythonProjects/OmronOfficeSystem_old/Taxi.xlsx
+++ b/PythonProjects/OmronOfficeSystem_old/Taxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16000"/>
+    <workbookView windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,21 +100,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,125 +242,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,181 +265,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,20 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,155 +552,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
